--- a/Python/HLHD-XGTC.xlsx
+++ b/Python/HLHD-XGTC.xlsx
@@ -1418,37 +1418,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[1]/div[2]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[4]/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[4]/div[2]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[5]/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[5]/div[2]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[6]/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[6]/div[2]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[7]/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[7]/div[2]/a</t>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[8]/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/div/form/div[8]/div[2]/a</t>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[1]/div[2]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[4]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[4]/div[2]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[5]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[5]/div[2]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[6]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[6]/div[2]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[7]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[7]/div[2]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[8]/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[8]/div[2]/a</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1802,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W17" sqref="W17"/>
+      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Python/HLHD-XGTC.xlsx
+++ b/Python/HLHD-XGTC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="500">
   <si>
     <t>预期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1449,6 +1449,180 @@
   </si>
   <si>
     <t>//*[@id="MainModifyModal"]/div[2]/div/div[2]/div/form/div[8]/div[2]/a</t>
+  </si>
+  <si>
+    <t>55!55</t>
+  </si>
+  <si>
+    <t>55@55</t>
+  </si>
+  <si>
+    <t>55#55</t>
+  </si>
+  <si>
+    <t>55$55</t>
+  </si>
+  <si>
+    <t>55%55</t>
+  </si>
+  <si>
+    <t>55^55</t>
+  </si>
+  <si>
+    <t>55&amp;55</t>
+  </si>
+  <si>
+    <t>55*55</t>
+  </si>
+  <si>
+    <t>55(55</t>
+  </si>
+  <si>
+    <t>55)55</t>
+  </si>
+  <si>
+    <t>55+55</t>
+  </si>
+  <si>
+    <t>55`55</t>
+  </si>
+  <si>
+    <t>55=55</t>
+  </si>
+  <si>
+    <t>55{55</t>
+  </si>
+  <si>
+    <t>55}55</t>
+  </si>
+  <si>
+    <t>55|55</t>
+  </si>
+  <si>
+    <t>55:55</t>
+  </si>
+  <si>
+    <t>55"55</t>
+  </si>
+  <si>
+    <t>55&lt;55</t>
+  </si>
+  <si>
+    <t>55&gt;55</t>
+  </si>
+  <si>
+    <t>55?55</t>
+  </si>
+  <si>
+    <t>55[55</t>
+  </si>
+  <si>
+    <t>55]55</t>
+  </si>
+  <si>
+    <t>55\55</t>
+  </si>
+  <si>
+    <t>55;55</t>
+  </si>
+  <si>
+    <t>55'55</t>
+  </si>
+  <si>
+    <t>55,55</t>
+  </si>
+  <si>
+    <t>55.55</t>
+  </si>
+  <si>
+    <t>55/55</t>
+  </si>
+  <si>
+    <t>!!!!!</t>
+  </si>
+  <si>
+    <t>@@@@@</t>
+  </si>
+  <si>
+    <t>#####</t>
+  </si>
+  <si>
+    <t>$$$$$</t>
+  </si>
+  <si>
+    <t>%%%%%%</t>
+  </si>
+  <si>
+    <t>^^^^^^</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>*******</t>
+  </si>
+  <si>
+    <t>((((((</t>
+  </si>
+  <si>
+    <t>))))))</t>
+  </si>
+  <si>
+    <t>++++++</t>
+  </si>
+  <si>
+    <t>``````</t>
+  </si>
+  <si>
+    <t>======</t>
+  </si>
+  <si>
+    <t>{{{{{{{</t>
+  </si>
+  <si>
+    <t>}}}}}}</t>
+  </si>
+  <si>
+    <t>|||||||</t>
+  </si>
+  <si>
+    <t>:::::::</t>
+  </si>
+  <si>
+    <t>""""""</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t>[[[[[[</t>
+  </si>
+  <si>
+    <t>]]]]]]</t>
+  </si>
+  <si>
+    <t>\\\\\\</t>
+  </si>
+  <si>
+    <t>;;;;;;</t>
+  </si>
+  <si>
+    <t>''''''</t>
+  </si>
+  <si>
+    <t>,,,,,,,</t>
+  </si>
+  <si>
+    <t>.......</t>
+  </si>
+  <si>
+    <t>//////</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1518,11 +1692,85 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1802,7 +2050,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2465,7 +2713,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>471</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -2521,7 +2769,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>472</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>45</v>
@@ -2577,7 +2825,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>473</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>45</v>
@@ -2624,7 +2872,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>474</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>45</v>
@@ -2671,7 +2919,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>475</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>45</v>
@@ -2718,7 +2966,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>476</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>45</v>
@@ -2774,7 +3022,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>477</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>45</v>
@@ -2821,7 +3069,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>478</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
@@ -2829,8 +3077,8 @@
       <c r="D21" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
+      <c r="E21" t="s">
+        <v>442</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>46</v>
@@ -2838,8 +3086,8 @@
       <c r="H21" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
+      <c r="I21" t="s">
+        <v>442</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>46</v>
@@ -2847,8 +3095,8 @@
       <c r="L21" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>15</v>
+      <c r="M21" t="s">
+        <v>442</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>46</v>
@@ -2877,7 +3125,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>479</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>45</v>
@@ -2885,8 +3133,8 @@
       <c r="D22" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>16</v>
+      <c r="E22" t="s">
+        <v>443</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>46</v>
@@ -2894,8 +3142,8 @@
       <c r="H22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
+      <c r="I22" t="s">
+        <v>443</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>46</v>
@@ -2903,8 +3151,8 @@
       <c r="L22" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>16</v>
+      <c r="M22" t="s">
+        <v>443</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>46</v>
@@ -2933,7 +3181,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>480</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
@@ -2941,8 +3189,8 @@
       <c r="D23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
+      <c r="E23" t="s">
+        <v>444</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>46</v>
@@ -2950,8 +3198,8 @@
       <c r="H23" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>17</v>
+      <c r="I23" t="s">
+        <v>444</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>46</v>
@@ -2959,8 +3207,8 @@
       <c r="L23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>17</v>
+      <c r="M23" t="s">
+        <v>444</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>46</v>
@@ -2989,7 +3237,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>481</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>45</v>
@@ -2997,8 +3245,8 @@
       <c r="D24" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
+      <c r="E24" t="s">
+        <v>445</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>46</v>
@@ -3006,8 +3254,8 @@
       <c r="H24" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>18</v>
+      <c r="I24" t="s">
+        <v>445</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>46</v>
@@ -3015,8 +3263,8 @@
       <c r="L24" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>18</v>
+      <c r="M24" t="s">
+        <v>445</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>46</v>
@@ -3045,7 +3293,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>482</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>45</v>
@@ -3053,8 +3301,8 @@
       <c r="D25" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>19</v>
+      <c r="E25" t="s">
+        <v>446</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>46</v>
@@ -3062,8 +3310,8 @@
       <c r="H25" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>19</v>
+      <c r="I25" t="s">
+        <v>446</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>46</v>
@@ -3071,8 +3319,8 @@
       <c r="L25" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>19</v>
+      <c r="M25" t="s">
+        <v>446</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>46</v>
@@ -3101,7 +3349,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>483</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
@@ -3109,8 +3357,8 @@
       <c r="D26" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
+      <c r="E26" t="s">
+        <v>447</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>46</v>
@@ -3118,8 +3366,8 @@
       <c r="H26" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>20</v>
+      <c r="I26" t="s">
+        <v>447</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>46</v>
@@ -3127,8 +3375,8 @@
       <c r="L26" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>20</v>
+      <c r="M26" t="s">
+        <v>447</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>46</v>
@@ -3157,7 +3405,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>484</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>45</v>
@@ -3165,8 +3413,8 @@
       <c r="D27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>21</v>
+      <c r="E27" t="s">
+        <v>448</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>46</v>
@@ -3174,8 +3422,8 @@
       <c r="H27" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>21</v>
+      <c r="I27" t="s">
+        <v>448</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>46</v>
@@ -3183,8 +3431,8 @@
       <c r="L27" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>21</v>
+      <c r="M27" t="s">
+        <v>448</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>46</v>
@@ -3212,8 +3460,8 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
+      <c r="A28" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>45</v>
@@ -3221,8 +3469,8 @@
       <c r="D28" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>22</v>
+      <c r="E28" t="s">
+        <v>449</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>46</v>
@@ -3230,8 +3478,8 @@
       <c r="H28" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>22</v>
+      <c r="I28" t="s">
+        <v>449</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>46</v>
@@ -3239,8 +3487,8 @@
       <c r="L28" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>22</v>
+      <c r="M28" t="s">
+        <v>449</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>46</v>
@@ -3269,7 +3517,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>486</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>45</v>
@@ -3277,8 +3525,8 @@
       <c r="D29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>23</v>
+      <c r="E29" t="s">
+        <v>450</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>46</v>
@@ -3286,8 +3534,8 @@
       <c r="H29" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>23</v>
+      <c r="I29" t="s">
+        <v>450</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>46</v>
@@ -3295,8 +3543,8 @@
       <c r="L29" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>23</v>
+      <c r="M29" t="s">
+        <v>450</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>46</v>
@@ -3325,7 +3573,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>487</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>45</v>
@@ -3333,8 +3581,8 @@
       <c r="D30" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>24</v>
+      <c r="E30" t="s">
+        <v>451</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>46</v>
@@ -3342,8 +3590,8 @@
       <c r="H30" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>24</v>
+      <c r="I30" t="s">
+        <v>451</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>46</v>
@@ -3351,8 +3599,8 @@
       <c r="L30" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>24</v>
+      <c r="M30" t="s">
+        <v>451</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>46</v>
@@ -3381,7 +3629,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>488</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>45</v>
@@ -3389,8 +3637,8 @@
       <c r="D31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>25</v>
+      <c r="E31" t="s">
+        <v>452</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>46</v>
@@ -3398,8 +3646,8 @@
       <c r="H31" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>25</v>
+      <c r="I31" t="s">
+        <v>452</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>46</v>
@@ -3407,8 +3655,8 @@
       <c r="L31" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>25</v>
+      <c r="M31" t="s">
+        <v>452</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>46</v>
@@ -3437,7 +3685,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>489</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>45</v>
@@ -3445,8 +3693,8 @@
       <c r="D32" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>26</v>
+      <c r="E32" t="s">
+        <v>453</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>46</v>
@@ -3454,8 +3702,8 @@
       <c r="H32" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>26</v>
+      <c r="I32" t="s">
+        <v>453</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>46</v>
@@ -3463,8 +3711,8 @@
       <c r="L32" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>26</v>
+      <c r="M32" t="s">
+        <v>453</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>46</v>
@@ -3493,7 +3741,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>490</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>45</v>
@@ -3501,8 +3749,8 @@
       <c r="D33" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>27</v>
+      <c r="E33" t="s">
+        <v>454</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>46</v>
@@ -3510,8 +3758,8 @@
       <c r="H33" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>27</v>
+      <c r="I33" t="s">
+        <v>454</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>46</v>
@@ -3519,8 +3767,8 @@
       <c r="L33" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>27</v>
+      <c r="M33" t="s">
+        <v>454</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>46</v>
@@ -3549,7 +3797,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>491</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>45</v>
@@ -3557,8 +3805,8 @@
       <c r="D34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>28</v>
+      <c r="E34" t="s">
+        <v>455</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>46</v>
@@ -3566,8 +3814,8 @@
       <c r="H34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>28</v>
+      <c r="I34" t="s">
+        <v>455</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>46</v>
@@ -3575,8 +3823,8 @@
       <c r="L34" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>28</v>
+      <c r="M34" t="s">
+        <v>455</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>46</v>
@@ -3605,7 +3853,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>492</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>45</v>
@@ -3613,8 +3861,8 @@
       <c r="D35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>29</v>
+      <c r="E35" t="s">
+        <v>456</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>46</v>
@@ -3622,8 +3870,8 @@
       <c r="H35" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>29</v>
+      <c r="I35" t="s">
+        <v>456</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>46</v>
@@ -3631,8 +3879,8 @@
       <c r="L35" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>29</v>
+      <c r="M35" t="s">
+        <v>456</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>46</v>
@@ -3661,7 +3909,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>493</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>45</v>
@@ -3669,8 +3917,8 @@
       <c r="D36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>30</v>
+      <c r="E36" t="s">
+        <v>457</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>46</v>
@@ -3678,8 +3926,8 @@
       <c r="H36" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>30</v>
+      <c r="I36" t="s">
+        <v>457</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>46</v>
@@ -3687,8 +3935,8 @@
       <c r="L36" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>30</v>
+      <c r="M36" t="s">
+        <v>457</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>46</v>
@@ -3716,8 +3964,8 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
+      <c r="A37" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>45</v>
@@ -3725,8 +3973,8 @@
       <c r="D37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>31</v>
+      <c r="E37" t="s">
+        <v>458</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>46</v>
@@ -3734,8 +3982,8 @@
       <c r="H37" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>31</v>
+      <c r="I37" t="s">
+        <v>458</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>46</v>
@@ -3743,8 +3991,8 @@
       <c r="L37" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>31</v>
+      <c r="M37" t="s">
+        <v>458</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>46</v>
@@ -3772,8 +4020,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
+      <c r="A38" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
@@ -3781,8 +4029,8 @@
       <c r="D38" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>32</v>
+      <c r="E38" t="s">
+        <v>459</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>46</v>
@@ -3790,8 +4038,8 @@
       <c r="H38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>32</v>
+      <c r="I38" t="s">
+        <v>459</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>46</v>
@@ -3799,8 +4047,8 @@
       <c r="L38" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>32</v>
+      <c r="M38" t="s">
+        <v>459</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>46</v>
@@ -3828,8 +4076,8 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>47</v>
+      <c r="A39" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>45</v>
@@ -3837,8 +4085,8 @@
       <c r="D39" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>33</v>
+      <c r="E39" t="s">
+        <v>460</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>46</v>
@@ -3846,8 +4094,8 @@
       <c r="H39" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>33</v>
+      <c r="I39" t="s">
+        <v>460</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>46</v>
@@ -3855,8 +4103,8 @@
       <c r="L39" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>33</v>
+      <c r="M39" t="s">
+        <v>460</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>46</v>
@@ -3878,8 +4126,8 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
+      <c r="A40" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>45</v>
@@ -3887,8 +4135,8 @@
       <c r="D40" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>34</v>
+      <c r="E40" t="s">
+        <v>461</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>46</v>
@@ -3896,8 +4144,8 @@
       <c r="H40" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>34</v>
+      <c r="I40" t="s">
+        <v>461</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>46</v>
@@ -3905,8 +4153,8 @@
       <c r="L40" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>34</v>
+      <c r="M40" t="s">
+        <v>461</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>46</v>
@@ -3929,7 +4177,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>45</v>
@@ -3937,8 +4185,8 @@
       <c r="D41" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>35</v>
+      <c r="E41" t="s">
+        <v>462</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>46</v>
@@ -3946,8 +4194,8 @@
       <c r="H41" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>35</v>
+      <c r="I41" t="s">
+        <v>462</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>46</v>
@@ -3955,8 +4203,8 @@
       <c r="L41" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>35</v>
+      <c r="M41" t="s">
+        <v>462</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>46</v>
@@ -3985,7 +4233,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>499</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>
@@ -3993,8 +4241,8 @@
       <c r="D42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>36</v>
+      <c r="E42" t="s">
+        <v>463</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>46</v>
@@ -4002,8 +4250,8 @@
       <c r="H42" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>36</v>
+      <c r="I42" t="s">
+        <v>463</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>46</v>
@@ -4011,8 +4259,8 @@
       <c r="L42" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>36</v>
+      <c r="M42" t="s">
+        <v>463</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>46</v>
@@ -4049,8 +4297,8 @@
       <c r="D43" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>37</v>
+      <c r="E43" t="s">
+        <v>464</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>46</v>
@@ -4058,8 +4306,8 @@
       <c r="H43" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>37</v>
+      <c r="I43" t="s">
+        <v>464</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>46</v>
@@ -4067,8 +4315,8 @@
       <c r="L43" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>37</v>
+      <c r="M43" t="s">
+        <v>464</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>46</v>
@@ -4105,8 +4353,8 @@
       <c r="D44" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>38</v>
+      <c r="E44" t="s">
+        <v>465</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>46</v>
@@ -4114,8 +4362,8 @@
       <c r="H44" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>38</v>
+      <c r="I44" t="s">
+        <v>465</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>46</v>
@@ -4123,8 +4371,8 @@
       <c r="L44" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>38</v>
+      <c r="M44" t="s">
+        <v>465</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>46</v>
@@ -4161,8 +4409,8 @@
       <c r="D45" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>39</v>
+      <c r="E45" t="s">
+        <v>466</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>46</v>
@@ -4170,8 +4418,8 @@
       <c r="H45" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>39</v>
+      <c r="I45" t="s">
+        <v>466</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>46</v>
@@ -4179,8 +4427,8 @@
       <c r="L45" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>39</v>
+      <c r="M45" t="s">
+        <v>466</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>46</v>
@@ -4208,8 +4456,8 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E46" s="2" t="s">
-        <v>47</v>
+      <c r="E46" t="s">
+        <v>467</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>46</v>
@@ -4217,8 +4465,8 @@
       <c r="H46" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>47</v>
+      <c r="I46" t="s">
+        <v>467</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>46</v>
@@ -4226,8 +4474,8 @@
       <c r="L46" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>47</v>
+      <c r="M46" t="s">
+        <v>467</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>46</v>
@@ -4255,8 +4503,8 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E47" s="1" t="s">
-        <v>40</v>
+      <c r="E47" t="s">
+        <v>468</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>46</v>
@@ -4264,8 +4512,8 @@
       <c r="H47" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>40</v>
+      <c r="I47" t="s">
+        <v>468</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>46</v>
@@ -4273,8 +4521,8 @@
       <c r="L47" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>40</v>
+      <c r="M47" t="s">
+        <v>468</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>46</v>
@@ -4302,29 +4550,20 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>46</v>
+      <c r="E48" t="s">
+        <v>469</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>46</v>
+      <c r="I48" t="s">
+        <v>469</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>46</v>
+      <c r="M48" t="s">
+        <v>469</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>312</v>
@@ -4349,8 +4588,8 @@
       </c>
     </row>
     <row r="49" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E49" s="1" t="s">
-        <v>42</v>
+      <c r="E49" t="s">
+        <v>470</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>46</v>
@@ -4358,8 +4597,8 @@
       <c r="H49" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>42</v>
+      <c r="I49" t="s">
+        <v>470</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>46</v>
@@ -4367,8 +4606,8 @@
       <c r="L49" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>42</v>
+      <c r="M49" t="s">
+        <v>470</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>46</v>
@@ -4795,6 +5034,30 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E21:E49">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I49">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:M49">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
